--- a/data/HR1_2/A_BJ_35/A_BJ_35_2030.xlsx
+++ b/data/HR1_2/A_BJ_35/A_BJ_35_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_BJ_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923E144-8490-42C7-A51D-0DC6AE6C75EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC841E0E-679B-4E0D-8CD3-A822204A1F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="33" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13031,7 +13031,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20120,7 +20120,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21525,7 +21525,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22930,7 +22930,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24335,7 +24335,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40010,7 +40010,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53001,7 +53001,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U5"/>
+      <selection sqref="A1:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53344,8 +53344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269BB8AE-AF58-4948-ACF8-0766138E7234}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54514,7 +54514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBD33DE-0CDC-4A53-BBCE-979FFDA6564C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54575,7 +54577,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54732,8 +54734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB8B46A-AE60-4C6A-9083-95B78AFB7CBA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A1048543" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54860,7 +54862,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
